--- a/Jadwal.xlsx
+++ b/Jadwal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\Semester 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\Semester-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EC34A9-9FF9-4421-A6B5-9916F87EB887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C433DD0-5D57-4421-97B1-130F3F58A036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mata Kuliah" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Hari</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>H.5.13</t>
-  </si>
-  <si>
-    <t>H.4.6</t>
   </si>
   <si>
     <t>Kulino</t>
@@ -218,14 +215,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +507,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,60 +539,60 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>23</v>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
@@ -609,45 +606,45 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>30</v>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>

--- a/Jadwal.xlsx
+++ b/Jadwal.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\Semester-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C433DD0-5D57-4421-97B1-130F3F58A036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B455A89-2778-4541-BCB4-2781CA72A433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mata Kuliah" sheetId="1" r:id="rId1"/>
+    <sheet name="UTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Hari</t>
   </si>
@@ -124,6 +125,51 @@
   </si>
   <si>
     <t>Sistem Terdistribusi</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>No Kursi</t>
+  </si>
+  <si>
+    <t>Senin, 30 Oktober 2023</t>
+  </si>
+  <si>
+    <t>H.5.4</t>
+  </si>
+  <si>
+    <t>Selasa, 31 Oktober 2023</t>
+  </si>
+  <si>
+    <t>H.4.9</t>
+  </si>
+  <si>
+    <t>Rabu, 1 November 2023</t>
+  </si>
+  <si>
+    <t>H.5.11</t>
+  </si>
+  <si>
+    <t>Kamis, 2 November 2023</t>
+  </si>
+  <si>
+    <t>Keamanan Sistem dan Siber</t>
+  </si>
+  <si>
+    <t>Jumat, 3 November 2023</t>
+  </si>
+  <si>
+    <t>H.5.1</t>
+  </si>
+  <si>
+    <t>Sabtu, 4 November 2023</t>
+  </si>
+  <si>
+    <t>10.00-11.00</t>
+  </si>
+  <si>
+    <t>Jumat, 10 November 2023</t>
   </si>
 </sst>
 </file>
@@ -172,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,11 +241,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +295,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,4 +743,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AD48BA-73FB-4828-88D1-2F7BAA71117D}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Jadwal.xlsx
+++ b/Jadwal.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\Semester-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B455A89-2778-4541-BCB4-2781CA72A433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533E014D-F012-40C2-BC57-3595B23141F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mata Kuliah" sheetId="1" r:id="rId1"/>
     <sheet name="UTS" sheetId="2" r:id="rId2"/>
+    <sheet name="UAS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t>Hari</t>
   </si>
@@ -170,6 +171,27 @@
   </si>
   <si>
     <t>Jumat, 10 November 2023</t>
+  </si>
+  <si>
+    <t>Senin, 8 Januari 2024</t>
+  </si>
+  <si>
+    <t>Selasa, 9 Januari 2024</t>
+  </si>
+  <si>
+    <t>Rabu, 10 Januari 2024</t>
+  </si>
+  <si>
+    <t>Kamis, 11 Januari 2024</t>
+  </si>
+  <si>
+    <t>Jumat, 12 Januari 2024</t>
+  </si>
+  <si>
+    <t>Sabtu, 13 November 2024</t>
+  </si>
+  <si>
+    <t>Jumat, 19 Januari 2024</t>
   </si>
 </sst>
 </file>
@@ -290,17 +312,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -594,15 +616,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -616,7 +638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -630,8 +652,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -644,8 +666,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="9"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -656,8 +678,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -670,8 +692,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
@@ -682,7 +704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -696,8 +718,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -710,8 +732,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
@@ -722,8 +744,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
@@ -749,20 +771,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AD48BA-73FB-4828-88D1-2F7BAA71117D}">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
@@ -779,8 +801,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -796,8 +818,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -813,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
@@ -830,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -845,8 +867,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -862,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
@@ -879,7 +901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -890,8 +912,8 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -905,8 +927,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -927,4 +949,188 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9DD379-422A-4D8C-AE94-374728BBF2E9}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>